--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.755754207238261</v>
+        <v>1.765134014560337</v>
       </c>
       <c r="C2">
         <v>9.634600668846847</v>
@@ -537,10 +537,10 @@
         <v>-0.4586921403196634</v>
       </c>
       <c r="J2">
-        <v>-0.5607984014105734</v>
+        <v>-0.5513017252472258</v>
       </c>
       <c r="K2">
-        <v>0.1884940101426699</v>
+        <v>0.1696252062987764</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -569,13 +569,13 @@
         <v>-2.708494979931056</v>
       </c>
       <c r="I3">
-        <v>-2.810601241021966</v>
+        <v>-2.801104564858618</v>
       </c>
       <c r="J3">
-        <v>-2.061308829468723</v>
+        <v>-2.080177633312616</v>
       </c>
       <c r="K3">
-        <v>-2.798639470194942</v>
+        <v>-2.78912955792647</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -601,13 +601,13 @@
         <v>-10.17764531078835</v>
       </c>
       <c r="H4">
-        <v>-10.27975157187926</v>
+        <v>-10.27025489571591</v>
       </c>
       <c r="I4">
-        <v>-9.530459160326016</v>
+        <v>-9.549327964169908</v>
       </c>
       <c r="J4">
-        <v>-10.26778980105223</v>
+        <v>-10.25827988878376</v>
       </c>
       <c r="K4">
         <v>-9.766173896461286</v>
@@ -633,19 +633,19 @@
         <v>7.99361648934912</v>
       </c>
       <c r="G5">
-        <v>7.89151022825821</v>
+        <v>7.901006904421558</v>
       </c>
       <c r="H5">
-        <v>8.640802639811453</v>
+        <v>8.62193383596756</v>
       </c>
       <c r="I5">
-        <v>7.903471999085234</v>
+        <v>7.912981911353705</v>
       </c>
       <c r="J5">
         <v>8.405087903676183</v>
       </c>
       <c r="K5">
-        <v>8.865497686650029</v>
+        <v>8.874892650949169</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -665,22 +665,22 @@
         <v>-0.1460550576300293</v>
       </c>
       <c r="F6">
-        <v>-0.2481613187209393</v>
+        <v>-0.2386646425575917</v>
       </c>
       <c r="G6">
-        <v>0.5011310928323041</v>
+        <v>0.4822622889884105</v>
       </c>
       <c r="H6">
-        <v>-0.2361995478939153</v>
+        <v>-0.2266896356254442</v>
       </c>
       <c r="I6">
         <v>0.2654163566970329</v>
       </c>
       <c r="J6">
-        <v>0.7258261396708795</v>
+        <v>0.7352211039700201</v>
       </c>
       <c r="K6">
-        <v>1.066842166737449</v>
+        <v>1.048046298935466</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,25 +697,25 @@
         <v>-2.293625529429422</v>
       </c>
       <c r="E7">
-        <v>-2.395731790520331</v>
+        <v>-2.386235114356984</v>
       </c>
       <c r="F7">
-        <v>-1.646439378967088</v>
+        <v>-1.665308182810982</v>
       </c>
       <c r="G7">
-        <v>-2.383770019693308</v>
+        <v>-2.374260107424837</v>
       </c>
       <c r="H7">
         <v>-1.88215411510236</v>
       </c>
       <c r="I7">
-        <v>-1.421744332128513</v>
+        <v>-1.412349367829372</v>
       </c>
       <c r="J7">
-        <v>-1.080728305061943</v>
+        <v>-1.099524172863926</v>
       </c>
       <c r="K7">
-        <v>-1.987443283555525</v>
+        <v>-1.977926754115506</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,28 +729,28 @@
         <v>1.146404457093908</v>
       </c>
       <c r="D8">
-        <v>1.044298196002998</v>
+        <v>1.053794872166346</v>
       </c>
       <c r="E8">
-        <v>1.793590607556242</v>
+        <v>1.774721803712348</v>
       </c>
       <c r="F8">
-        <v>1.056259966830022</v>
+        <v>1.065769879098493</v>
       </c>
       <c r="G8">
         <v>1.55787587142097</v>
       </c>
       <c r="H8">
-        <v>2.018285654394817</v>
+        <v>2.027680618693958</v>
       </c>
       <c r="I8">
-        <v>2.359301681461387</v>
+        <v>2.340505813659403</v>
       </c>
       <c r="J8">
-        <v>1.452586702967805</v>
+        <v>1.462103232407824</v>
       </c>
       <c r="K8">
-        <v>0.7227080498514589</v>
+        <v>0.7321912172293545</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,31 +761,31 @@
         <v>1.207578635508109</v>
       </c>
       <c r="C9">
-        <v>1.105472374417199</v>
+        <v>1.114969050580547</v>
       </c>
       <c r="D9">
-        <v>1.854764785970443</v>
+        <v>1.835895982126549</v>
       </c>
       <c r="E9">
-        <v>1.117434145244223</v>
+        <v>1.126944057512694</v>
       </c>
       <c r="F9">
         <v>1.619050049835171</v>
       </c>
       <c r="G9">
-        <v>2.079459832809018</v>
+        <v>2.088854797108159</v>
       </c>
       <c r="H9">
-        <v>2.420475859875588</v>
+        <v>2.401679992073604</v>
       </c>
       <c r="I9">
-        <v>1.513760881382006</v>
+        <v>1.523277410822025</v>
       </c>
       <c r="J9">
-        <v>0.7838822282656599</v>
+        <v>0.7933653956435556</v>
       </c>
       <c r="K9">
-        <v>2.45547295005447</v>
+        <v>2.455544492033183</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.9359835627390551</v>
+        <v>-0.9264868865757077</v>
       </c>
       <c r="C10">
-        <v>-0.1866911511858119</v>
+        <v>-0.2055599550297054</v>
       </c>
       <c r="D10">
-        <v>-0.9240217919120313</v>
+        <v>-0.9145118796435601</v>
       </c>
       <c r="E10">
         <v>-0.422405887321083</v>
       </c>
       <c r="F10">
-        <v>0.03800389565276358</v>
+        <v>0.04739885995190407</v>
       </c>
       <c r="G10">
-        <v>0.3790199227193335</v>
+        <v>0.36022405491735</v>
       </c>
       <c r="H10">
-        <v>-0.5276950557742481</v>
+        <v>-0.5181785263342299</v>
       </c>
       <c r="I10">
-        <v>-1.257573708890594</v>
+        <v>-1.248090541512699</v>
       </c>
       <c r="J10">
-        <v>0.4140170128982152</v>
+        <v>0.4140885548769285</v>
       </c>
       <c r="K10">
-        <v>-0.1862047921269588</v>
+        <v>-0.2051307335183153</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3959033858478291</v>
+        <v>0.3770345820039356</v>
       </c>
       <c r="C11">
-        <v>-0.3414272548783902</v>
+        <v>-0.3319173426099191</v>
       </c>
       <c r="D11">
         <v>0.160188649712558</v>
       </c>
       <c r="E11">
-        <v>0.6205984326864046</v>
+        <v>0.6299933969855451</v>
       </c>
       <c r="F11">
-        <v>0.9616144597529745</v>
+        <v>0.942818591950991</v>
       </c>
       <c r="G11">
-        <v>0.0548994812593929</v>
+        <v>0.06441601069941108</v>
       </c>
       <c r="H11">
-        <v>-0.6749791718569536</v>
+        <v>-0.6654960044790579</v>
       </c>
       <c r="I11">
-        <v>0.9966115499318562</v>
+        <v>0.9966830919105695</v>
       </c>
       <c r="J11">
-        <v>0.3963897449066822</v>
+        <v>0.3774638035153257</v>
       </c>
       <c r="K11">
-        <v>0.6053185832282579</v>
+        <v>0.6147675671350392</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,31 +863,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.437102295687748</v>
+        <v>-0.4275923834192769</v>
       </c>
       <c r="C12">
         <v>0.0645136089032002</v>
       </c>
       <c r="D12">
-        <v>0.5249233918770468</v>
+        <v>0.5343183561761873</v>
       </c>
       <c r="E12">
-        <v>0.8659394189436167</v>
+        <v>0.8471435511416332</v>
       </c>
       <c r="F12">
-        <v>-0.0407755595499649</v>
+        <v>-0.03125903010994671</v>
       </c>
       <c r="G12">
-        <v>-0.7706542126663114</v>
+        <v>-0.7611710452884157</v>
       </c>
       <c r="H12">
-        <v>0.9009365091224983</v>
+        <v>0.9010080511012117</v>
       </c>
       <c r="I12">
-        <v>0.3007147040973244</v>
+        <v>0.2817887627059679</v>
       </c>
       <c r="J12">
-        <v>0.5096435424189001</v>
+        <v>0.5190925263256815</v>
       </c>
       <c r="K12">
         <v>0.4158151564502698</v>
@@ -901,31 +901,31 @@
         <v>0.324932645901923</v>
       </c>
       <c r="C13">
-        <v>0.7853424288757695</v>
+        <v>0.7947373931749101</v>
       </c>
       <c r="D13">
-        <v>1.12635845594234</v>
+        <v>1.107562588140356</v>
       </c>
       <c r="E13">
-        <v>0.2196434774487579</v>
+        <v>0.2291600068887761</v>
       </c>
       <c r="F13">
-        <v>-0.5102351756675885</v>
+        <v>-0.5007520082896928</v>
       </c>
       <c r="G13">
-        <v>1.161355546121221</v>
+        <v>1.161427088099934</v>
       </c>
       <c r="H13">
-        <v>0.5611337410960472</v>
+        <v>0.5422077997046907</v>
       </c>
       <c r="I13">
-        <v>0.7700625794176229</v>
+        <v>0.7795115633244043</v>
       </c>
       <c r="J13">
         <v>0.6762341934489926</v>
       </c>
       <c r="K13">
-        <v>-0.1630969307778141</v>
+        <v>-0.1153642338804421</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05011256728272162</v>
+        <v>-0.04071760298358112</v>
       </c>
       <c r="C14">
-        <v>0.2909034597838484</v>
+        <v>0.2721075919818648</v>
       </c>
       <c r="D14">
-        <v>-0.6158115187097333</v>
+        <v>-0.6062949892697151</v>
       </c>
       <c r="E14">
-        <v>-1.34569017182608</v>
+        <v>-1.336207004448184</v>
       </c>
       <c r="F14">
-        <v>0.32590054996273</v>
+        <v>0.3259720919414433</v>
       </c>
       <c r="G14">
-        <v>-0.274321255062444</v>
+        <v>-0.2932471964538005</v>
       </c>
       <c r="H14">
-        <v>-0.06539241674086832</v>
+        <v>-0.05594343283408693</v>
       </c>
       <c r="I14">
         <v>-0.1592208027094986</v>
       </c>
       <c r="J14">
-        <v>-0.9985519269363053</v>
+        <v>-0.9508192300389333</v>
       </c>
       <c r="K14">
-        <v>-0.2359516323112753</v>
+        <v>-0.3403303223714723</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,31 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3909828196864699</v>
+        <v>0.3721869518844864</v>
       </c>
       <c r="C15">
-        <v>-0.5157321588071118</v>
+        <v>-0.5062156293670936</v>
       </c>
       <c r="D15">
-        <v>-1.245610811923458</v>
+        <v>-1.236127644545562</v>
       </c>
       <c r="E15">
-        <v>0.4259799098653515</v>
+        <v>0.4260514518440648</v>
       </c>
       <c r="F15">
-        <v>-0.1742418951598225</v>
+        <v>-0.193167836551179</v>
       </c>
       <c r="G15">
-        <v>0.03468694316175319</v>
+        <v>0.04413592706853459</v>
       </c>
       <c r="H15">
         <v>-0.05914144280687711</v>
       </c>
       <c r="I15">
-        <v>-0.8984725670336838</v>
+        <v>-0.8507398701363118</v>
       </c>
       <c r="J15">
-        <v>-0.1358722724086538</v>
+        <v>-0.2402509624688508</v>
+      </c>
+      <c r="K15">
+        <v>-0.4017729932881683</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1000,117 +1003,132 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1619456527274156</v>
+        <v>-0.1524291232873974</v>
       </c>
       <c r="C16">
-        <v>-0.891824305843762</v>
+        <v>-0.8823411384658664</v>
       </c>
       <c r="D16">
-        <v>0.7797664159450477</v>
+        <v>0.779837957923761</v>
       </c>
       <c r="E16">
-        <v>0.1795446109198737</v>
+        <v>0.1606186695285172</v>
       </c>
       <c r="F16">
-        <v>0.3884734492414494</v>
+        <v>0.3979224331482308</v>
       </c>
       <c r="G16">
         <v>0.2946450632728191</v>
       </c>
       <c r="H16">
-        <v>-0.5446860609539876</v>
+        <v>-0.4969533640566156</v>
       </c>
       <c r="I16">
-        <v>0.2179142336710425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.1135355436108454</v>
+      </c>
+      <c r="J16">
+        <v>-0.04798648720847212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1.040001696276207</v>
+        <v>-1.030518528898312</v>
       </c>
       <c r="C17">
-        <v>0.6315890255126024</v>
+        <v>0.6316605674913157</v>
       </c>
       <c r="D17">
-        <v>0.0313672204874284</v>
+        <v>0.0124412790960719</v>
       </c>
       <c r="E17">
-        <v>0.2402960588090041</v>
+        <v>0.2497450427157855</v>
       </c>
       <c r="F17">
         <v>0.1464676728403738</v>
       </c>
       <c r="G17">
-        <v>-0.6928634513864329</v>
+        <v>-0.6451307544890609</v>
       </c>
       <c r="H17">
-        <v>0.06973684323859711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>-0.03464184682159993</v>
+      </c>
+      <c r="I17">
+        <v>-0.1961638776409175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.4741430365084474</v>
+        <v>0.4742145784871607</v>
       </c>
       <c r="C18">
-        <v>-0.1260787685167266</v>
+        <v>-0.1450047099080831</v>
       </c>
       <c r="D18">
-        <v>0.0828500698048491</v>
+        <v>0.0922990537116305</v>
       </c>
       <c r="E18">
         <v>-0.0109783161637812</v>
       </c>
       <c r="F18">
-        <v>-0.850309440390588</v>
+        <v>-0.8025767434932158</v>
       </c>
       <c r="G18">
-        <v>-0.08770914576555788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-0.1920878358257549</v>
+      </c>
+      <c r="H18">
+        <v>-0.3536098666450724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3745806880093442</v>
+        <v>0.3556547466179877</v>
       </c>
       <c r="C19">
-        <v>0.5835095263309199</v>
+        <v>0.5929585102377013</v>
       </c>
       <c r="D19">
         <v>0.4896811403622896</v>
       </c>
       <c r="E19">
-        <v>-0.3496499838645171</v>
+        <v>-0.3019172869671451</v>
       </c>
       <c r="F19">
-        <v>0.4129503107605129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.3085716207003159</v>
+      </c>
+      <c r="G19">
+        <v>0.1470495898809984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3031516457954507</v>
+        <v>0.3126006297022321</v>
       </c>
       <c r="C20">
         <v>0.2093232598268204</v>
       </c>
       <c r="D20">
-        <v>-0.6300078643999862</v>
+        <v>-0.5822751675026142</v>
       </c>
       <c r="E20">
-        <v>0.1325924302250437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.02821374016484672</v>
+      </c>
+      <c r="F20">
+        <v>-0.1333082906544708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,34 +1136,46 @@
         <v>0.3812981176718321</v>
       </c>
       <c r="C21">
-        <v>-0.4580330065549746</v>
+        <v>-0.4103003096576026</v>
       </c>
       <c r="D21">
-        <v>0.3045672880700554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.2001885980098584</v>
+      </c>
+      <c r="E21">
+        <v>0.03866656719054083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.7638955463013062</v>
+        <v>-0.716162849403934</v>
       </c>
       <c r="C22">
-        <v>-0.001295251676276088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1056739417364731</v>
+      </c>
+      <c r="D22">
+        <v>-0.2671959725557906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.6110347010110101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.506656010950813</v>
+      </c>
+      <c r="C23">
+        <v>0.3451339801314955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.765134014560337</v>
+        <v>9.634600668846847</v>
       </c>
       <c r="C2">
-        <v>9.634600668846847</v>
+        <v>-8.622337597701534</v>
       </c>
       <c r="D2">
-        <v>-8.622337597701534</v>
+        <v>-0.8522339323542271</v>
       </c>
       <c r="E2">
-        <v>-0.8522339323542271</v>
+        <v>0.478975912873543</v>
       </c>
       <c r="F2">
-        <v>0.478975912873543</v>
+        <v>-1.892429927382574</v>
       </c>
       <c r="G2">
-        <v>-1.892429927382574</v>
+        <v>-1.228164494743756</v>
       </c>
       <c r="H2">
-        <v>-1.228164494743756</v>
+        <v>-0.4586921403196634</v>
       </c>
       <c r="I2">
-        <v>-0.4586921403196634</v>
+        <v>-0.5513017252472258</v>
       </c>
       <c r="J2">
-        <v>-0.5513017252472258</v>
+        <v>0.1696252062987764</v>
       </c>
       <c r="K2">
-        <v>0.1696252062987764</v>
+        <v>-0.5393267183150783</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.384797829235454</v>
+        <v>-10.87214043731293</v>
       </c>
       <c r="C3">
-        <v>-10.87214043731293</v>
+        <v>-3.102036771965619</v>
       </c>
       <c r="D3">
-        <v>-3.102036771965619</v>
+        <v>-1.770826926737849</v>
       </c>
       <c r="E3">
-        <v>-1.770826926737849</v>
+        <v>-4.142232766993966</v>
       </c>
       <c r="F3">
-        <v>-4.142232766993966</v>
+        <v>-3.477967334355148</v>
       </c>
       <c r="G3">
-        <v>-3.477967334355148</v>
+        <v>-2.708494979931056</v>
       </c>
       <c r="H3">
-        <v>-2.708494979931056</v>
+        <v>-2.801104564858618</v>
       </c>
       <c r="I3">
-        <v>-2.801104564858618</v>
+        <v>-2.080177633312616</v>
       </c>
       <c r="J3">
-        <v>-2.080177633312616</v>
+        <v>-2.78912955792647</v>
       </c>
       <c r="K3">
-        <v>-2.78912955792647</v>
+        <v>-2.297023565603993</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-18.34129076817022</v>
+        <v>-10.57118710282291</v>
       </c>
       <c r="C4">
-        <v>-10.57118710282291</v>
+        <v>-9.239977257595143</v>
       </c>
       <c r="D4">
-        <v>-9.239977257595143</v>
+        <v>-11.61138309785126</v>
       </c>
       <c r="E4">
-        <v>-11.61138309785126</v>
+        <v>-10.94711766521244</v>
       </c>
       <c r="F4">
-        <v>-10.94711766521244</v>
+        <v>-10.17764531078835</v>
       </c>
       <c r="G4">
-        <v>-10.17764531078835</v>
+        <v>-10.27025489571591</v>
       </c>
       <c r="H4">
-        <v>-10.27025489571591</v>
+        <v>-9.549327964169908</v>
       </c>
       <c r="I4">
-        <v>-9.549327964169908</v>
+        <v>-10.25827988878376</v>
       </c>
       <c r="J4">
-        <v>-10.25827988878376</v>
+        <v>-9.766173896461286</v>
       </c>
       <c r="K4">
-        <v>-9.766173896461286</v>
+        <v>-9.296369149188299</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7.600074697314557</v>
+        <v>8.931284542542326</v>
       </c>
       <c r="C5">
-        <v>8.931284542542326</v>
+        <v>6.55987870228621</v>
       </c>
       <c r="D5">
-        <v>6.55987870228621</v>
+        <v>7.224144134925027</v>
       </c>
       <c r="E5">
-        <v>7.224144134925027</v>
+        <v>7.99361648934912</v>
       </c>
       <c r="F5">
-        <v>7.99361648934912</v>
+        <v>7.901006904421558</v>
       </c>
       <c r="G5">
-        <v>7.901006904421558</v>
+        <v>8.62193383596756</v>
       </c>
       <c r="H5">
-        <v>8.62193383596756</v>
+        <v>7.912981911353705</v>
       </c>
       <c r="I5">
-        <v>7.912981911353705</v>
+        <v>8.405087903676183</v>
       </c>
       <c r="J5">
-        <v>8.405087903676183</v>
+        <v>8.874892650949169</v>
       </c>
       <c r="K5">
-        <v>8.874892650949169</v>
+        <v>9.187717845914616</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7916129955631771</v>
+        <v>-1.579792844692939</v>
       </c>
       <c r="C6">
-        <v>-1.579792844692939</v>
+        <v>-0.9155274120541215</v>
       </c>
       <c r="D6">
-        <v>-0.9155274120541215</v>
+        <v>-0.1460550576300293</v>
       </c>
       <c r="E6">
-        <v>-0.1460550576300293</v>
+        <v>-0.2386646425575917</v>
       </c>
       <c r="F6">
-        <v>-0.2386646425575917</v>
+        <v>0.4822622889884105</v>
       </c>
       <c r="G6">
-        <v>0.4822622889884105</v>
+        <v>-0.2266896356254442</v>
       </c>
       <c r="H6">
-        <v>-0.2266896356254442</v>
+        <v>0.2654163566970329</v>
       </c>
       <c r="I6">
-        <v>0.2654163566970329</v>
+        <v>0.7352211039700201</v>
       </c>
       <c r="J6">
-        <v>0.7352211039700201</v>
+        <v>1.048046298935466</v>
       </c>
       <c r="K6">
-        <v>1.048046298935466</v>
+        <v>0.169643717683886</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-3.727363316492332</v>
+        <v>-3.063097883853514</v>
       </c>
       <c r="C7">
-        <v>-3.063097883853514</v>
+        <v>-2.293625529429422</v>
       </c>
       <c r="D7">
-        <v>-2.293625529429422</v>
+        <v>-2.386235114356984</v>
       </c>
       <c r="E7">
-        <v>-2.386235114356984</v>
+        <v>-1.665308182810982</v>
       </c>
       <c r="F7">
-        <v>-1.665308182810982</v>
+        <v>-2.374260107424837</v>
       </c>
       <c r="G7">
-        <v>-2.374260107424837</v>
+        <v>-1.88215411510236</v>
       </c>
       <c r="H7">
-        <v>-1.88215411510236</v>
+        <v>-1.412349367829372</v>
       </c>
       <c r="I7">
-        <v>-1.412349367829372</v>
+        <v>-1.099524172863926</v>
       </c>
       <c r="J7">
-        <v>-1.099524172863926</v>
+        <v>-1.977926754115506</v>
       </c>
       <c r="K7">
-        <v>-1.977926754115506</v>
+        <v>-2.707838769293975</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.376932102669816</v>
+        <v>1.146404457093908</v>
       </c>
       <c r="C8">
-        <v>1.146404457093908</v>
+        <v>1.053794872166346</v>
       </c>
       <c r="D8">
-        <v>1.053794872166346</v>
+        <v>1.774721803712348</v>
       </c>
       <c r="E8">
-        <v>1.774721803712348</v>
+        <v>1.065769879098493</v>
       </c>
       <c r="F8">
-        <v>1.065769879098493</v>
+        <v>1.55787587142097</v>
       </c>
       <c r="G8">
-        <v>1.55787587142097</v>
+        <v>2.027680618693958</v>
       </c>
       <c r="H8">
-        <v>2.027680618693958</v>
+        <v>2.340505813659403</v>
       </c>
       <c r="I8">
-        <v>2.340505813659403</v>
+        <v>1.462103232407824</v>
       </c>
       <c r="J8">
-        <v>1.462103232407824</v>
+        <v>0.7321912172293545</v>
       </c>
       <c r="K8">
-        <v>0.7321912172293545</v>
+        <v>2.394370313618982</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.207578635508109</v>
+        <v>1.114969050580547</v>
       </c>
       <c r="C9">
-        <v>1.114969050580547</v>
+        <v>1.835895982126549</v>
       </c>
       <c r="D9">
-        <v>1.835895982126549</v>
+        <v>1.126944057512694</v>
       </c>
       <c r="E9">
-        <v>1.126944057512694</v>
+        <v>1.619050049835171</v>
       </c>
       <c r="F9">
-        <v>1.619050049835171</v>
+        <v>2.088854797108159</v>
       </c>
       <c r="G9">
-        <v>2.088854797108159</v>
+        <v>2.401679992073604</v>
       </c>
       <c r="H9">
-        <v>2.401679992073604</v>
+        <v>1.523277410822025</v>
       </c>
       <c r="I9">
-        <v>1.523277410822025</v>
+        <v>0.7933653956435556</v>
       </c>
       <c r="J9">
-        <v>0.7933653956435556</v>
+        <v>2.455544492033183</v>
       </c>
       <c r="K9">
-        <v>2.455544492033183</v>
+        <v>1.836325203637939</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.9264868865757077</v>
+        <v>-0.2055599550297054</v>
       </c>
       <c r="C10">
-        <v>-0.2055599550297054</v>
+        <v>-0.9145118796435601</v>
       </c>
       <c r="D10">
-        <v>-0.9145118796435601</v>
+        <v>-0.422405887321083</v>
       </c>
       <c r="E10">
-        <v>-0.422405887321083</v>
+        <v>0.04739885995190407</v>
       </c>
       <c r="F10">
-        <v>0.04739885995190407</v>
+        <v>0.36022405491735</v>
       </c>
       <c r="G10">
-        <v>0.36022405491735</v>
+        <v>-0.5181785263342299</v>
       </c>
       <c r="H10">
-        <v>-0.5181785263342299</v>
+        <v>-1.248090541512699</v>
       </c>
       <c r="I10">
-        <v>-1.248090541512699</v>
+        <v>0.4140885548769285</v>
       </c>
       <c r="J10">
-        <v>0.4140885548769285</v>
+        <v>-0.2051307335183153</v>
       </c>
       <c r="K10">
-        <v>-0.2051307335183153</v>
+        <v>0.03217303010139827</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3770345820039356</v>
+        <v>-0.3319173426099191</v>
       </c>
       <c r="C11">
-        <v>-0.3319173426099191</v>
+        <v>0.160188649712558</v>
       </c>
       <c r="D11">
-        <v>0.160188649712558</v>
+        <v>0.6299933969855451</v>
       </c>
       <c r="E11">
-        <v>0.6299933969855451</v>
+        <v>0.942818591950991</v>
       </c>
       <c r="F11">
-        <v>0.942818591950991</v>
+        <v>0.06441601069941108</v>
       </c>
       <c r="G11">
-        <v>0.06441601069941108</v>
+        <v>-0.6654960044790579</v>
       </c>
       <c r="H11">
-        <v>-0.6654960044790579</v>
+        <v>0.9966830919105695</v>
       </c>
       <c r="I11">
-        <v>0.9966830919105695</v>
+        <v>0.3774638035153257</v>
       </c>
       <c r="J11">
-        <v>0.3774638035153257</v>
+        <v>0.6147675671350392</v>
       </c>
       <c r="K11">
-        <v>0.6147675671350392</v>
+        <v>0.5114901972596275</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.4275923834192769</v>
+        <v>0.0645136089032002</v>
       </c>
       <c r="C12">
-        <v>0.0645136089032002</v>
+        <v>0.5343183561761873</v>
       </c>
       <c r="D12">
-        <v>0.5343183561761873</v>
+        <v>0.8471435511416332</v>
       </c>
       <c r="E12">
-        <v>0.8471435511416332</v>
+        <v>-0.03125903010994671</v>
       </c>
       <c r="F12">
-        <v>-0.03125903010994671</v>
+        <v>-0.7611710452884157</v>
       </c>
       <c r="G12">
-        <v>-0.7611710452884157</v>
+        <v>0.9010080511012117</v>
       </c>
       <c r="H12">
-        <v>0.9010080511012117</v>
+        <v>0.2817887627059679</v>
       </c>
       <c r="I12">
-        <v>0.2817887627059679</v>
+        <v>0.5190925263256815</v>
       </c>
       <c r="J12">
-        <v>0.5190925263256815</v>
+        <v>0.4158151564502698</v>
       </c>
       <c r="K12">
-        <v>0.4158151564502698</v>
+        <v>-0.3757832708791649</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.324932645901923</v>
+        <v>0.7947373931749101</v>
       </c>
       <c r="C13">
-        <v>0.7947373931749101</v>
+        <v>1.107562588140356</v>
       </c>
       <c r="D13">
-        <v>1.107562588140356</v>
+        <v>0.2291600068887761</v>
       </c>
       <c r="E13">
-        <v>0.2291600068887761</v>
+        <v>-0.5007520082896928</v>
       </c>
       <c r="F13">
-        <v>-0.5007520082896928</v>
+        <v>1.161427088099934</v>
       </c>
       <c r="G13">
-        <v>1.161427088099934</v>
+        <v>0.5422077997046907</v>
       </c>
       <c r="H13">
-        <v>0.5422077997046907</v>
+        <v>0.7795115633244043</v>
       </c>
       <c r="I13">
-        <v>0.7795115633244043</v>
+        <v>0.6762341934489926</v>
       </c>
       <c r="J13">
-        <v>0.6762341934489926</v>
+        <v>-0.1153642338804421</v>
       </c>
       <c r="K13">
-        <v>-0.1153642338804421</v>
+        <v>0.4951246737870189</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.04071760298358112</v>
+        <v>0.2721075919818648</v>
       </c>
       <c r="C14">
-        <v>0.2721075919818648</v>
+        <v>-0.6062949892697151</v>
       </c>
       <c r="D14">
-        <v>-0.6062949892697151</v>
+        <v>-1.336207004448184</v>
       </c>
       <c r="E14">
-        <v>-1.336207004448184</v>
+        <v>0.3259720919414433</v>
       </c>
       <c r="F14">
-        <v>0.3259720919414433</v>
+        <v>-0.2932471964538005</v>
       </c>
       <c r="G14">
-        <v>-0.2932471964538005</v>
+        <v>-0.05594343283408693</v>
       </c>
       <c r="H14">
-        <v>-0.05594343283408693</v>
+        <v>-0.1592208027094986</v>
       </c>
       <c r="I14">
-        <v>-0.1592208027094986</v>
+        <v>-0.9508192300389333</v>
       </c>
       <c r="J14">
-        <v>-0.9508192300389333</v>
+        <v>-0.3403303223714723</v>
       </c>
       <c r="K14">
-        <v>-0.3403303223714723</v>
+        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3721869518844864</v>
+        <v>-0.5062156293670936</v>
       </c>
       <c r="C15">
-        <v>-0.5062156293670936</v>
+        <v>-1.236127644545562</v>
       </c>
       <c r="D15">
-        <v>-1.236127644545562</v>
+        <v>0.4260514518440648</v>
       </c>
       <c r="E15">
-        <v>0.4260514518440648</v>
+        <v>-0.193167836551179</v>
       </c>
       <c r="F15">
-        <v>-0.193167836551179</v>
+        <v>0.04413592706853459</v>
       </c>
       <c r="G15">
-        <v>0.04413592706853459</v>
+        <v>-0.05914144280687711</v>
       </c>
       <c r="H15">
-        <v>-0.05914144280687711</v>
+        <v>-0.8507398701363118</v>
       </c>
       <c r="I15">
-        <v>-0.8507398701363118</v>
+        <v>-0.2402509624688508</v>
       </c>
       <c r="J15">
-        <v>-0.2402509624688508</v>
-      </c>
-      <c r="K15">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -1003,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1524291232873974</v>
+        <v>-0.8823411384658664</v>
       </c>
       <c r="C16">
-        <v>-0.8823411384658664</v>
+        <v>0.779837957923761</v>
       </c>
       <c r="D16">
-        <v>0.779837957923761</v>
+        <v>0.1606186695285172</v>
       </c>
       <c r="E16">
-        <v>0.1606186695285172</v>
+        <v>0.3979224331482308</v>
       </c>
       <c r="F16">
-        <v>0.3979224331482308</v>
+        <v>0.2946450632728191</v>
       </c>
       <c r="G16">
-        <v>0.2946450632728191</v>
+        <v>-0.4969533640566156</v>
       </c>
       <c r="H16">
-        <v>-0.4969533640566156</v>
+        <v>0.1135355436108454</v>
       </c>
       <c r="I16">
-        <v>0.1135355436108454</v>
-      </c>
-      <c r="J16">
         <v>-0.04798648720847212</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1.030518528898312</v>
+        <v>0.6316605674913157</v>
       </c>
       <c r="C17">
-        <v>0.6316605674913157</v>
+        <v>0.0124412790960719</v>
       </c>
       <c r="D17">
-        <v>0.0124412790960719</v>
+        <v>0.2497450427157855</v>
       </c>
       <c r="E17">
-        <v>0.2497450427157855</v>
+        <v>0.1464676728403738</v>
       </c>
       <c r="F17">
-        <v>0.1464676728403738</v>
+        <v>-0.6451307544890609</v>
       </c>
       <c r="G17">
-        <v>-0.6451307544890609</v>
+        <v>-0.03464184682159993</v>
       </c>
       <c r="H17">
-        <v>-0.03464184682159993</v>
-      </c>
-      <c r="I17">
         <v>-0.1961638776409175</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.4742145784871607</v>
+        <v>-0.1450047099080831</v>
       </c>
       <c r="C18">
-        <v>-0.1450047099080831</v>
+        <v>0.0922990537116305</v>
       </c>
       <c r="D18">
-        <v>0.0922990537116305</v>
+        <v>-0.0109783161637812</v>
       </c>
       <c r="E18">
-        <v>-0.0109783161637812</v>
+        <v>-0.8025767434932158</v>
       </c>
       <c r="F18">
-        <v>-0.8025767434932158</v>
+        <v>-0.1920878358257549</v>
       </c>
       <c r="G18">
-        <v>-0.1920878358257549</v>
-      </c>
-      <c r="H18">
         <v>-0.3536098666450724</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3556547466179877</v>
+        <v>0.5929585102377013</v>
       </c>
       <c r="C19">
-        <v>0.5929585102377013</v>
+        <v>0.4896811403622896</v>
       </c>
       <c r="D19">
-        <v>0.4896811403622896</v>
+        <v>-0.3019172869671451</v>
       </c>
       <c r="E19">
-        <v>-0.3019172869671451</v>
+        <v>0.3085716207003159</v>
       </c>
       <c r="F19">
-        <v>0.3085716207003159</v>
-      </c>
-      <c r="G19">
         <v>0.1470495898809984</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3126006297022321</v>
+        <v>0.2093232598268204</v>
       </c>
       <c r="C20">
-        <v>0.2093232598268204</v>
+        <v>-0.5822751675026142</v>
       </c>
       <c r="D20">
-        <v>-0.5822751675026142</v>
+        <v>0.02821374016484672</v>
       </c>
       <c r="E20">
-        <v>0.02821374016484672</v>
-      </c>
-      <c r="F20">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.3812981176718321</v>
+        <v>-0.4103003096576026</v>
       </c>
       <c r="C21">
-        <v>-0.4103003096576026</v>
+        <v>0.2001885980098584</v>
       </c>
       <c r="D21">
-        <v>0.2001885980098584</v>
-      </c>
-      <c r="E21">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.716162849403934</v>
+        <v>-0.1056739417364731</v>
       </c>
       <c r="C22">
-        <v>-0.1056739417364731</v>
-      </c>
-      <c r="D22">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.506656010950813</v>
-      </c>
-      <c r="C23">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_latest.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.765134014560337</v>
+      </c>
+      <c r="C2">
         <v>9.634600668846847</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-8.622337597701534</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.8522339323542271</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.478975912873543</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1.892429927382574</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-1.228164494743756</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.4586921403196634</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.5513017252472258</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1696252062987764</v>
-      </c>
-      <c r="K2">
-        <v>-0.5393267183150783</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>7.384797829235454</v>
+      </c>
+      <c r="C3">
         <v>-10.87214043731293</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-3.102036771965619</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.770826926737849</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-4.142232766993966</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.477967334355148</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-2.708494979931056</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-2.801104564858618</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-2.080177633312616</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-2.78912955792647</v>
-      </c>
-      <c r="K3">
-        <v>-2.297023565603993</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-18.34129076817022</v>
+      </c>
+      <c r="C4">
         <v>-10.57118710282291</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-9.239977257595143</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-11.61138309785126</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-10.94711766521244</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-10.17764531078835</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-10.27025489571591</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-9.549327964169908</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-10.25827988878376</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-9.766173896461286</v>
-      </c>
-      <c r="K4">
-        <v>-9.296369149188299</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>7.600074697314557</v>
+      </c>
+      <c r="C5">
         <v>8.931284542542326</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6.55987870228621</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.224144134925027</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7.99361648934912</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7.901006904421558</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.62193383596756</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7.912981911353705</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.405087903676183</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8.874892650949169</v>
-      </c>
-      <c r="K5">
-        <v>9.187717845914616</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.7916129955631771</v>
+      </c>
+      <c r="C6">
         <v>-1.579792844692939</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.9155274120541215</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.1460550576300293</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.2386646425575917</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.4822622889884105</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.2266896356254442</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.2654163566970329</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7352211039700201</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.048046298935466</v>
-      </c>
-      <c r="K6">
-        <v>0.169643717683886</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-3.727363316492332</v>
+      </c>
+      <c r="C7">
         <v>-3.063097883853514</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-2.293625529429422</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-2.386235114356984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-1.665308182810982</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-2.374260107424837</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1.88215411510236</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.412349367829372</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.099524172863926</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.977926754115506</v>
-      </c>
-      <c r="K7">
-        <v>-2.707838769293975</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.376932102669816</v>
+      </c>
+      <c r="C8">
         <v>1.146404457093908</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.053794872166346</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.774721803712348</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.065769879098493</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.55787587142097</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.027680618693958</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.340505813659403</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.462103232407824</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.7321912172293545</v>
-      </c>
-      <c r="K8">
-        <v>2.394370313618982</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>1.207578635508109</v>
+      </c>
+      <c r="C9">
         <v>1.114969050580547</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.835895982126549</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.126944057512694</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.619050049835171</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.088854797108159</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.401679992073604</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.523277410822025</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.7933653956435556</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.455544492033183</v>
-      </c>
-      <c r="K9">
-        <v>1.836325203637939</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.9264868865757077</v>
+      </c>
+      <c r="C10">
         <v>-0.2055599550297054</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.9145118796435601</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.422405887321083</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.04739885995190407</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.36022405491735</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.5181785263342299</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-1.248090541512699</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.4140885548769285</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.2051307335183153</v>
-      </c>
-      <c r="K10">
-        <v>0.03217303010139827</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3770345820039356</v>
+      </c>
+      <c r="C11">
         <v>-0.3319173426099191</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.160188649712558</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6299933969855451</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.942818591950991</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.06441601069941108</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.6654960044790579</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9966830919105695</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.3774638035153257</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.6147675671350392</v>
-      </c>
-      <c r="K11">
-        <v>0.5114901972596275</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.4275923834192769</v>
+      </c>
+      <c r="C12">
         <v>0.0645136089032002</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5343183561761873</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.8471435511416332</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.03125903010994671</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.7611710452884157</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.9010080511012117</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.2817887627059679</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.5190925263256815</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.4158151564502698</v>
-      </c>
-      <c r="K12">
-        <v>-0.3757832708791649</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.324932645901923</v>
+      </c>
+      <c r="C13">
         <v>0.7947373931749101</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.107562588140356</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2291600068887761</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.5007520082896928</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.161427088099934</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.5422077997046907</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.7795115633244043</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.6762341934489926</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.1153642338804421</v>
-      </c>
-      <c r="K13">
-        <v>0.4951246737870189</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.04071760298358112</v>
+      </c>
+      <c r="C14">
         <v>0.2721075919818648</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.6062949892697151</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-1.336207004448184</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.3259720919414433</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.2932471964538005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.05594343283408693</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.1592208027094986</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.9508192300389333</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.3403303223714723</v>
-      </c>
-      <c r="K14">
-        <v>-0.5018523531907899</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +968,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.3721869518844864</v>
+      </c>
+      <c r="C15">
         <v>-0.5062156293670936</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1.236127644545562</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.4260514518440648</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.193167836551179</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.04413592706853459</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.05914144280687711</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.8507398701363118</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.2402509624688508</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.4017729932881683</v>
       </c>
     </row>
@@ -1000,152 +1003,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1524291232873974</v>
+      </c>
+      <c r="C16">
         <v>-0.8823411384658664</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.779837957923761</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1606186695285172</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.3979224331482308</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.2946450632728191</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.4969533640566156</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.1135355436108454</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.04798648720847212</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-1.030518528898312</v>
+      </c>
+      <c r="C17">
         <v>0.6316605674913157</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.0124412790960719</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.2497450427157855</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1464676728403738</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.6451307544890609</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.03464184682159993</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.1961638776409175</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.4742145784871607</v>
+      </c>
+      <c r="C18">
         <v>-0.1450047099080831</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.0922990537116305</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.0109783161637812</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.8025767434932158</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.1920878358257549</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.3536098666450724</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.3556547466179877</v>
+      </c>
+      <c r="C19">
         <v>0.5929585102377013</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.4896811403622896</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.3019172869671451</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3085716207003159</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1470495898809984</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.3126006297022321</v>
+      </c>
+      <c r="C20">
         <v>0.2093232598268204</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.5822751675026142</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.02821374016484672</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.1333082906544708</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>0.3812981176718321</v>
+      </c>
+      <c r="C21">
         <v>-0.4103003096576026</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2001885980098584</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.03866656719054083</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.716162849403934</v>
+      </c>
+      <c r="C22">
         <v>-0.1056739417364731</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.2671959725557906</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.506656010950813</v>
+      </c>
+      <c r="C23">
         <v>0.3451339801314955</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.343237405067616</v>
       </c>
     </row>
   </sheetData>
